--- a/files/import_from_site/new/31-08-2023.xlsx
+++ b/files/import_from_site/new/31-08-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4449</v>
+        <v>5249</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -684,29 +684,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-10.3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>134</v>
+        <v>136.54</v>
       </c>
       <c r="I5" t="n">
-        <v>4958</v>
+        <v>5052</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>48612</v>
       </c>
       <c r="N5" t="n">
-        <v>-4876625</v>
+        <v>4876625</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DQ850-M-V2L (DP-GD-DQ850-M-V2L)</t>
+          <t>Блок питания GIGABYTE P450B (650W) 80&amp;#043; Bronze (GP-P450B)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5249</v>
+        <v>1699</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -734,49 +734,51 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>11.8%</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>136.54</v>
+        <v>40.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5052</v>
+        <v>1520</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>48612</v>
+        <v>24</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>GP-P450B</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>4876625</v>
+        <v>7204205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Блоки питания для ПК</t>
+          <t>Веб камеры</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>GENIUS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Блок питания GIGABYTE P450B (650W) 80&amp;#043; Bronze (GP-P450B)</t>
+          <t>Веб-камера Genius FaceCam-2000X Full HD Black (32200006400)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1699</v>
+        <v>979</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -784,14 +786,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.8%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>40.3</v>
+        <v>24.08</v>
       </c>
       <c r="I7" t="n">
-        <v>1520</v>
+        <v>891</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
@@ -800,35 +802,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>GP-P450B</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32200006400</v>
       </c>
       <c r="N7" t="n">
-        <v>7204205</v>
+        <v>9972455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Веб камеры</t>
+          <t>Видео адаптеры</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GENIUS</t>
+          <t>AFOX</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Веб-камера Genius FaceCam-2000X Full HD Black (32200006400)</t>
+          <t>GT 610 (AF610-2048D3L7-V5)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>979</v>
+        <v>1589</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -836,14 +836,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>24.08</v>
+        <v>42</v>
       </c>
       <c r="I8" t="n">
-        <v>891</v>
+        <v>1584</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
@@ -852,13 +852,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>31</v>
-      </c>
-      <c r="M8" t="n">
-        <v>32200006400</v>
+        <v>3</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>AF610-2048D3L7-V5</t>
+        </is>
       </c>
       <c r="N8" t="n">
-        <v>9972455</v>
+        <v>8425795</v>
       </c>
     </row>
     <row r="9">
@@ -869,16 +871,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AFOX</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GT 610 (AF610-2048D3L7-V5)</t>
+          <t>GeForce RTX 3060 GAMING OC 12G rev. 2.0 (GV-N3060GAMING OC-12GD)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1589</v>
+        <v>13499</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -886,14 +888,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>42</v>
+        <v>356.26</v>
       </c>
       <c r="I9" t="n">
-        <v>1584</v>
+        <v>13432</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
@@ -902,15 +904,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>AF610-2048D3L7-V5</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3699432</v>
       </c>
       <c r="N9" t="n">
-        <v>8425795</v>
+        <v>6913461</v>
       </c>
     </row>
     <row r="10">
@@ -921,16 +921,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>PNY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GeForce RTX 3060 GAMING OC 12G rev. 2.0 (GV-N3060GAMING OC-12GD)</t>
+          <t>GeForce GTX 1660 Ti XLR8 (VCG1660T6SFPPB-O)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13499</v>
+        <v>7899</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -938,49 +938,49 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-68.4%</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>356.26</v>
+        <v>675.3200000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>13432</v>
+        <v>24987</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="M10" t="n">
-        <v>3699432</v>
+        <v>17050086</v>
       </c>
       <c r="N10" t="n">
-        <v>6913461</v>
+        <v>-4682109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Видео адаптеры</t>
+          <t>Жесткие диски</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PNY</t>
+          <t>WESTERN DIGITAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GeForce GTX 1660 Ti XLR8 (VCG1660T6SFPPB-O)</t>
+          <t>SAS 2.0TB Enterprise Class (WD2000FYYG)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7899</v>
+        <v>1149</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -988,14 +988,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-68.4%</t>
+          <t>-14.5%</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>675.3200000000001</v>
+        <v>36.3</v>
       </c>
       <c r="I11" t="n">
-        <v>24987</v>
+        <v>1344</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
@@ -1004,33 +1004,33 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M11" t="n">
-        <v>17050086</v>
+        <v>367703</v>
       </c>
       <c r="N11" t="n">
-        <v>-4682109</v>
+        <v>-7173884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Жесткие диски</t>
+          <t>Жесткие диски - карманы</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WESTERN DIGITAL</t>
+          <t>AGE STAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SAS 2.0TB Enterprise Class (WD2000FYYG)</t>
+          <t>3UB2A14 Black</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1149</v>
+        <v>499</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
@@ -1038,29 +1038,31 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-14.5%</t>
+          <t>32.7%</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>36.3</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1344</v>
+        <v>376</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>69</v>
-      </c>
-      <c r="M12" t="n">
-        <v>367703</v>
+        <v>23</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0906096</t>
+        </is>
       </c>
       <c r="N12" t="n">
-        <v>-7173884</v>
+        <v>885246</v>
       </c>
     </row>
     <row r="13">
@@ -1076,11 +1078,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3UB2A14 Black</t>
+          <t>3UBNF5C (Gray)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>549</v>
+        <v>679</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
@@ -1088,14 +1090,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>46.0%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9.970000000000001</v>
+        <v>12.27</v>
       </c>
       <c r="I13" t="n">
-        <v>376</v>
+        <v>463</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
@@ -1104,15 +1106,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>23</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0906096</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1604897</v>
       </c>
       <c r="N13" t="n">
-        <v>885246</v>
+        <v>6359836</v>
       </c>
     </row>
     <row r="14">
@@ -1123,16 +1123,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AGE STAR</t>
+          <t>GRAND-X</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3UBNF5C (Gray)</t>
+          <t>HDE21</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>679</v>
+        <v>199</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>46.7%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>12.27</v>
+        <v>5.16</v>
       </c>
       <c r="I14" t="n">
-        <v>463</v>
+        <v>191</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
@@ -1156,13 +1156,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1604897</v>
+        <v>38</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>U0100199</t>
+        </is>
       </c>
       <c r="N14" t="n">
-        <v>6359836</v>
+        <v>1287887</v>
       </c>
     </row>
     <row r="15">
@@ -1173,16 +1175,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GRAND-X</t>
+          <t>MAIWO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HDE21</t>
+          <t>K16NC</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>199</v>
+        <v>349</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
@@ -1190,51 +1192,49 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>-32.3%</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5.16</v>
+        <v>13.92</v>
       </c>
       <c r="I15" t="n">
-        <v>191</v>
+        <v>516</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>U0100199</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="M15" t="n">
+        <v>47136</v>
       </c>
       <c r="N15" t="n">
-        <v>1287887</v>
+        <v>-4695840</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Жесткие диски - карманы</t>
+          <t>Жесткие диски SSD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAIWO</t>
+          <t>HEWLETT PACKARD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>K16NC</t>
+          <t>S700 250GB 2.5 SATA III (2DP98AA)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
@@ -1242,29 +1242,31 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-32.3%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13.92</v>
+        <v>16.3</v>
       </c>
       <c r="I16" t="n">
-        <v>516</v>
+        <v>604</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>52</v>
-      </c>
-      <c r="M16" t="n">
-        <v>47136</v>
+        <v>50</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2DP98AA#ABB</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>-4695840</v>
+        <v>6902289</v>
       </c>
     </row>
     <row r="17">
@@ -1280,11 +1282,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S700 250GB 2.5 SATA III (2DP98AA)</t>
+          <t>S750 512 GB (16L53AA)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>589</v>
+        <v>1039</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -1292,14 +1294,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>16.3</v>
+        <v>27.89</v>
       </c>
       <c r="I17" t="n">
-        <v>604</v>
+        <v>1032</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
@@ -1310,13 +1312,11 @@
       <c r="L17" t="n">
         <v>50</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2DP98AA#ABB</t>
-        </is>
+      <c r="M17" t="n">
+        <v>73002</v>
       </c>
       <c r="N17" t="n">
-        <v>6902289</v>
+        <v>9429110</v>
       </c>
     </row>
     <row r="18">
@@ -1327,46 +1327,48 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HEWLETT PACKARD</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S750 512 GB (16L53AA)</t>
+          <t>A400 240GB 2.5 SATA III (SA400S37/240G)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1039</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>669</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Строгач</t>
+        </is>
+      </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>27.89</v>
+        <v>15.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1032</v>
+        <v>567</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>50</v>
-      </c>
-      <c r="M18" t="n">
-        <v>73002</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>9429110</v>
+        <v>2231016</v>
       </c>
     </row>
     <row r="19">
@@ -1382,11 +1384,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A400 240GB 2.5 SATA III (SA400S37/240G)</t>
+          <t>A400 480GB 2.5 SATA III (SA400S37/480G)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>669</v>
+        <v>919</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1394,18 +1396,18 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>15.3</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>567</v>
+        <v>862</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
@@ -1418,7 +1420,7 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>2231016</v>
+        <v>2231017</v>
       </c>
     </row>
     <row r="20">
@@ -1434,11 +1436,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A400 480GB 2.5 SATA III (SA400S37/480G)</t>
+          <t>A400 960GB 2.5 SATA III (SA400S37/960G)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>919</v>
+        <v>1589</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1446,18 +1448,18 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>9.7%</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>862</v>
+        <v>1449</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
@@ -1466,11 +1468,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>21</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>SA400S37/960G</t>
+        </is>
+      </c>
       <c r="N20" t="n">
-        <v>2231017</v>
+        <v>2662168</v>
       </c>
     </row>
     <row r="21">
@@ -1486,47 +1492,43 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A400 960GB 2.5 SATA III (SA400S37/960G)</t>
+          <t>C600 256GB mSATA SATA III (SKC600MS/256G)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1589</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Строгач</t>
-        </is>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9.7%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>39</v>
+        <v>26.86</v>
       </c>
       <c r="I21" t="n">
-        <v>1449</v>
+        <v>1027</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>SA400S37/960G</t>
+          <t>SKC600MS/256G</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2662168</v>
+        <v>6493078</v>
       </c>
     </row>
     <row r="22">
@@ -1542,11 +1544,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C600 256GB mSATA SATA III (SKC600MS/256G)</t>
+          <t>Design-In 512 GB (OM3PDP3512B-A01)</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1049</v>
+        <v>1969</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
@@ -1554,14 +1556,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>26.86</v>
+        <v>48.93</v>
       </c>
       <c r="I22" t="n">
-        <v>1027</v>
+        <v>1870</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
@@ -1570,15 +1572,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>SKC600MS/256G</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>347962</v>
       </c>
       <c r="N22" t="n">
-        <v>6493078</v>
+        <v>6364772</v>
       </c>
     </row>
     <row r="23">
@@ -1958,121 +1958,121 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Звуковые карты</t>
+          <t>Жесткие диски SSD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UGREEN</t>
+          <t>WESTERN DIGITAL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>USB AUX jack, TRS(Mic + Ear) ALC4042 Black US205 (30724)</t>
+          <t>Green 240GB 2.5 SATA III (WDS240G3G0A)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>108.7%</t>
+          <t>9.1%</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>16.51</v>
       </c>
       <c r="I30" t="n">
-        <v>38</v>
+        <v>623</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>FuaCM</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>820035</v>
+        <v>1369895</v>
       </c>
       <c r="N30" t="n">
-        <v>8568970</v>
+        <v>8761124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Игровые манипуляторы</t>
+          <t>Звуковые карты</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GAMEPRO</t>
+          <t>UGREEN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MG111 Black</t>
+          <t>USB AUX jack, TRS(Mic + Ear) ALC4042 Black US205 (30724)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>108.7%</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.58</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>FuaCM</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="M31" t="n">
-        <v>6578224</v>
+        <v>820035</v>
       </c>
       <c r="N31" t="n">
-        <v>6540545</v>
+        <v>8568970</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Клавиатуры</t>
+          <t>Игровые манипуляторы</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>GAMEPRO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>B760 Bloody Black Green Switches</t>
+          <t>MG111 Black</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1999</v>
+        <v>135</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
@@ -2080,14 +2080,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>38.19</v>
+        <v>3.58</v>
       </c>
       <c r="I32" t="n">
-        <v>1414</v>
+        <v>135</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
@@ -2096,13 +2096,13 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M32" t="n">
-        <v>1604693</v>
+        <v>6578224</v>
       </c>
       <c r="N32" t="n">
-        <v>5433267</v>
+        <v>6540545</v>
       </c>
     </row>
     <row r="33">
@@ -2113,16 +2113,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DARK PROJECT</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Клавиатура игровая KD87A (DPO-KD-87A-400300-GMT) gray/purple</t>
+          <t>B760 Bloody Black Green Switches</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1649</v>
+        <v>1999</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
@@ -2130,31 +2130,29 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>41.4%</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>43.07</v>
+        <v>38.19</v>
       </c>
       <c r="I33" t="n">
-        <v>1624</v>
+        <v>1414</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>7076671|0e4795f9-b427-11ed-90f9-b4a9fc43a3f9</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1604693</v>
       </c>
       <c r="N33" t="n">
-        <v>-9774357</v>
+        <v>5433267</v>
       </c>
     </row>
     <row r="34">
@@ -2165,16 +2163,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>DARK PROJECT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Клавіатура безпровідна Defender Element HB-195 UA, чорна, мультимедіа (45189)</t>
+          <t>Клавиатура игровая KD87A (DPO-KD-87A-400300-GMT) gray/purple</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>259</v>
+        <v>1649</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
@@ -2182,29 +2180,31 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>43.07</v>
       </c>
       <c r="I34" t="n">
-        <v>237</v>
+        <v>1624</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>824394</v>
+        <v>3</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>7076671|0e4795f9-b427-11ed-90f9-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N34" t="n">
-        <v>8533394</v>
+        <v>-9774357</v>
       </c>
     </row>
     <row r="35">
@@ -2215,16 +2215,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
+          <t>Клавіатура безпровідна Defender Element HB-195 UA, чорна, мультимедіа (45189)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2999</v>
+        <v>259</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
@@ -2232,29 +2232,29 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>9.4%</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>77.17</v>
+        <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2910</v>
+        <v>237</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>66172</v>
+        <v>824394</v>
       </c>
       <c r="N35" t="n">
-        <v>9382884</v>
+        <v>8533394</v>
       </c>
     </row>
     <row r="36">
@@ -2265,16 +2265,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRUST</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ODY WRL Keyboard &amp;amp; Mouse RU (24159)</t>
+          <t>Клавиатура Ornata V3 (RZ03-04460100-R3M1)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>449</v>
+        <v>2999</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
@@ -2282,14 +2282,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>15.12</v>
+        <v>77.17</v>
       </c>
       <c r="I36" t="n">
-        <v>560</v>
+        <v>2910</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
@@ -2298,13 +2298,13 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="M36" t="n">
-        <v>3713515</v>
+        <v>66172</v>
       </c>
       <c r="N36" t="n">
-        <v>7205162</v>
+        <v>9382884</v>
       </c>
     </row>
     <row r="37">
@@ -2315,16 +2315,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>TRUST</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
+          <t>ODY WRL Keyboard &amp;amp; Mouse RU (24159)</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
@@ -2332,81 +2332,81 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23.9%</t>
+          <t>-19.8%</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>21.11</v>
+        <v>15.12</v>
       </c>
       <c r="I37" t="n">
-        <v>807</v>
+        <v>560</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>U0566268</t>
-        </is>
+        <v>59</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3713515</v>
       </c>
       <c r="N37" t="n">
-        <v>8494217</v>
+        <v>7205162</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры</t>
+          <t>Клавиатуры</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COOLING BABY</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7015 3PS</t>
+          <t>Клавиатура Vinga KBGM-110 87 key LED Blue Switch USB Black (KBGM-110 Black)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>49</v>
+        <v>999</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>23.9%</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.14</v>
+        <v>21.11</v>
       </c>
       <c r="I38" t="n">
-        <v>45</v>
+        <v>807</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>169</v>
-      </c>
-      <c r="M38" t="n">
-        <v>45131</v>
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>U0566268</t>
+        </is>
       </c>
       <c r="N38" t="n">
-        <v>2184075</v>
+        <v>8494217</v>
       </c>
     </row>
     <row r="39">
@@ -2417,31 +2417,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DEEPCOOL</t>
+          <t>COOLING BABY</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 B (DP-MCH3-GMX300-BL)</t>
+          <t>7015 3PS</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>789</v>
+        <v>49</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19.1%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>17.81</v>
+        <v>1.14</v>
       </c>
       <c r="I39" t="n">
-        <v>663</v>
+        <v>45</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
@@ -2450,13 +2450,13 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="M39" t="n">
-        <v>47936</v>
+        <v>45131</v>
       </c>
       <c r="N39" t="n">
-        <v>4311907</v>
+        <v>2184075</v>
       </c>
     </row>
     <row r="40">
@@ -2472,11 +2472,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
+          <t>GAMMAXX 300 B (DP-MCH3-GMX300-BL)</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>729</v>
+        <v>789</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
@@ -2484,14 +2484,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>19.1%</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>16.8</v>
+        <v>17.81</v>
       </c>
       <c r="I40" t="n">
-        <v>622</v>
+        <v>663</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
@@ -2500,13 +2500,13 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="M40" t="n">
-        <v>427337</v>
+        <v>47936</v>
       </c>
       <c r="N40" t="n">
-        <v>10031050</v>
+        <v>4311907</v>
       </c>
     </row>
     <row r="41">
@@ -2522,26 +2522,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>XFAN 80 (DP-FDC-XF80)</t>
+          <t>GAMMAXX 300 FURY (DP-MCH3-GMX300F)</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>89</v>
+        <v>729</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29.9%</t>
+          <t>17.3%</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.81</v>
+        <v>16.8</v>
       </c>
       <c r="I41" t="n">
-        <v>69</v>
+        <v>622</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
@@ -2550,11 +2550,13 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>128</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="M41" t="n">
+        <v>427337</v>
+      </c>
       <c r="N41" t="n">
-        <v>262689</v>
+        <v>10031050</v>
       </c>
     </row>
     <row r="42">
@@ -2570,26 +2572,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>XFan 120 (DP-FDC-XF120)</t>
+          <t>XFAN 80 (DP-FDC-XF80)</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>25.8%</t>
+          <t>29.9%</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="I42" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
@@ -2598,11 +2600,11 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>371011</v>
+        <v>262689</v>
       </c>
     </row>
     <row r="43">
@@ -2613,46 +2615,44 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EKWB</t>
+          <t>DEEPCOOL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
+          <t>XFan 120 (DP-FDC-XF120)</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-88.2%</t>
+          <t>25.8%</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>60.64</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>1686</v>
+        <v>119</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>848</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3831109832639</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>-6363959</v>
+        <v>371011</v>
       </c>
     </row>
     <row r="44">
@@ -2663,46 +2663,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRIME</t>
+          <t>EKWB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
+          <t>EK-Quantum Vector TUF RTX 3080 3090 Backplate-Nickel</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14.9%</t>
+          <t>-88.2%</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.15</v>
+        <v>60.64</v>
       </c>
       <c r="I44" t="n">
-        <v>43</v>
+        <v>1686</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>14</v>
+        <v>848</v>
       </c>
       <c r="M44" t="n">
-        <v>459285</v>
+        <v>3831109832639</v>
       </c>
       <c r="N44" t="n">
-        <v>10093211</v>
+        <v>-6363959</v>
       </c>
     </row>
     <row r="45">
@@ -2713,16 +2713,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>FRIME</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GMX-WFBK-WT</t>
+          <t>Вентилятор Frime (FF7015.40) 70x70x15мм, Black</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
@@ -2730,14 +2730,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-7.3%</t>
+          <t>14.9%</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2.57</v>
+        <v>1.15</v>
       </c>
       <c r="I45" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
@@ -2746,13 +2746,13 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M45" t="n">
-        <v>3688449</v>
+        <v>459285</v>
       </c>
       <c r="N45" t="n">
-        <v>4463224</v>
+        <v>10093211</v>
       </c>
     </row>
     <row r="46">
@@ -2763,16 +2763,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TFD-4010 M 12 Z (0400097)</t>
+          <t>GMX-WFBK-WT</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
@@ -2780,14 +2780,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>-7.3%</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2.9</v>
+        <v>2.57</v>
       </c>
       <c r="I46" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
@@ -2796,50 +2796,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>94</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>0400097</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3688449</v>
       </c>
       <c r="N46" t="n">
-        <v>9249871</v>
+        <v>4463224</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Компьютерные кулеры - аксессуары</t>
+          <t>Компьютерные кулеры</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ARCTIC</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MX-4 4г, со шпателем (ACTCP00031B)</t>
+          <t>TFD-4010 M 12 Z (0400097)</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4.14</v>
+        <v>2.9</v>
       </c>
       <c r="I47" t="n">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
@@ -2848,15 +2846,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>ACTCP00031B</t>
+          <t>0400097</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>7059344</v>
+        <v>9249871</v>
       </c>
     </row>
     <row r="48">
@@ -2867,12 +2865,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ID-COOLING</t>
+          <t>ARCTIC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
+          <t>MX-4 4г, со шпателем (ACTCP00031B)</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2880,18 +2878,18 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>4.14</v>
       </c>
       <c r="I48" t="n">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
@@ -2900,48 +2898,50 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>146</v>
-      </c>
-      <c r="M48" t="n">
-        <v>444082</v>
+        <v>2</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>ACTCP00031B</t>
+        </is>
       </c>
       <c r="N48" t="n">
-        <v>9436713</v>
+        <v>7059344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Корпуса</t>
+          <t>Компьютерные кулеры - аксессуары</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GAMEMAX</t>
+          <t>ID-COOLING</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Abyss-TR</t>
+          <t>Разветвитель питания вентиляторов ID-Cooling FS-04 ARGB Splitter 1-4</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3649</v>
+        <v>159</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>94.65000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3569</v>
+        <v>124</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="M49" t="n">
-        <v>37491</v>
+        <v>444082</v>
       </c>
       <c r="N49" t="n">
-        <v>7513003</v>
+        <v>9436713</v>
       </c>
     </row>
     <row r="50">
@@ -2972,11 +2972,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pardo Black </t>
+          <t>Abyss-TR</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1599</v>
+        <v>3649</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
@@ -2984,14 +2984,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>40.26</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>1561</v>
+        <v>3569</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
@@ -3000,13 +3000,13 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="M50" t="n">
-        <v>2973145</v>
+        <v>37491</v>
       </c>
       <c r="N50" t="n">
-        <v>2783798</v>
+        <v>7513003</v>
       </c>
     </row>
     <row r="51">
@@ -3022,11 +3022,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ST-610G</t>
+          <t xml:space="preserve">Pardo Black </t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1449</v>
+        <v>1599</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
@@ -3034,14 +3034,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>38.99</v>
+        <v>40.26</v>
       </c>
       <c r="I51" t="n">
-        <v>1443</v>
+        <v>1561</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="M51" t="n">
-        <v>44016</v>
+        <v>2973145</v>
       </c>
       <c r="N51" t="n">
-        <v>7732390</v>
+        <v>2783798</v>
       </c>
     </row>
     <row r="52">
@@ -3067,16 +3067,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VINGA</t>
+          <t>GAMEMAX</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pillar Black Radiation</t>
+          <t>ST-610G</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2549</v>
+        <v>1449</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
@@ -3084,51 +3084,49 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-12.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>79</v>
+        <v>38.99</v>
       </c>
       <c r="I52" t="n">
-        <v>2923</v>
+        <v>1443</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>48</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>U0747285</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="M52" t="n">
+        <v>44016</v>
       </c>
       <c r="N52" t="n">
-        <v>-9577112</v>
+        <v>7732390</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Корпуса - аксессуары</t>
+          <t>Корпуса</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CABLEXPERT</t>
+          <t>VINGA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
+          <t>Pillar Black Radiation</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>119</v>
+        <v>2549</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
@@ -3136,49 +3134,51 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-12.8%</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>3.07</v>
+        <v>79</v>
       </c>
       <c r="I53" t="n">
-        <v>125</v>
+        <v>2923</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>226</v>
-      </c>
-      <c r="M53" t="n">
-        <v>252144</v>
+        <v>48</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>U0747285</t>
+        </is>
       </c>
       <c r="N53" t="n">
-        <v>5325742</v>
+        <v>-9577112</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Материнские платы</t>
+          <t>Корпуса - аксессуары</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ASROCK</t>
+          <t>CABLEXPERT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B760M PG Lightning</t>
+          <t>USB 20-pin - Type-A 0.4m (CC-USB3-RECEPTACLE)</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5299</v>
+        <v>119</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
@@ -3186,14 +3186,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>137.03</v>
+        <v>3.07</v>
       </c>
       <c r="I54" t="n">
-        <v>5167</v>
+        <v>125</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="M54" t="n">
-        <v>3703814</v>
+        <v>252144</v>
       </c>
       <c r="N54" t="n">
-        <v>10610047</v>
+        <v>5325742</v>
       </c>
     </row>
     <row r="55">
@@ -3219,16 +3219,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIOSTAR</t>
+          <t>ASROCK</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TZ590-BTC DUO</t>
+          <t>B760M PG Lightning</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4999</v>
+        <v>5299</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
@@ -3236,14 +3236,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-33.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>270</v>
+        <v>137.03</v>
       </c>
       <c r="I55" t="n">
-        <v>7560</v>
+        <v>5167</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
@@ -3252,15 +3252,13 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>477</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>TZ590-BTC_DUO</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3703814</v>
       </c>
       <c r="N55" t="n">
-        <v>8199628</v>
+        <v>10610047</v>
       </c>
     </row>
     <row r="56">
@@ -3271,16 +3269,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GIGABYTE</t>
+          <t>BIOSTAR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N4120I H</t>
+          <t>TZ590-BTC DUO</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3899</v>
+        <v>4999</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
@@ -3288,14 +3286,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-33.9%</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>100.99</v>
+        <v>270</v>
       </c>
       <c r="I56" t="n">
-        <v>3737</v>
+        <v>7560</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
@@ -3304,13 +3302,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>50</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3703020</v>
+        <v>477</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>TZ590-BTC_DUO</t>
+        </is>
       </c>
       <c r="N56" t="n">
-        <v>10040970</v>
+        <v>8199628</v>
       </c>
     </row>
     <row r="57">
@@ -3321,16 +3321,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NZXT</t>
+          <t>GIGABYTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
+          <t>N4120I H</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7199</v>
+        <v>3899</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
@@ -3338,14 +3338,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>185.03</v>
+        <v>100.99</v>
       </c>
       <c r="I57" t="n">
-        <v>6976</v>
+        <v>3737</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
@@ -3354,35 +3354,33 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>30</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>N5-Z69XT-W1</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3703020</v>
       </c>
       <c r="N57" t="n">
-        <v>10216528</v>
+        <v>10040970</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Микрофоны</t>
+          <t>Материнские платы</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>NZXT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E 609</t>
+          <t>N5 Z690 D4 Matte White (N5-Z69XT-W1)</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2999</v>
+        <v>7199</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
@@ -3390,14 +3388,14 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-22.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>146.19</v>
+        <v>185.03</v>
       </c>
       <c r="I58" t="n">
-        <v>3853</v>
+        <v>6976</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
@@ -3406,13 +3404,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>653</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4522</v>
+        <v>30</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>N5-Z69XT-W1</t>
+        </is>
       </c>
       <c r="N58" t="n">
-        <v>6599676</v>
+        <v>10216528</v>
       </c>
     </row>
     <row r="59">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MD 431-II</t>
+          <t>E 609</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>9499</v>
+        <v>2999</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>447.85</v>
+        <v>146.19</v>
       </c>
       <c r="I59" t="n">
-        <v>12204</v>
+        <v>3853</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
@@ -3456,35 +3456,33 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>783</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>MD 431-II</t>
-        </is>
+        <v>653</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4522</v>
       </c>
       <c r="N59" t="n">
-        <v>3235478</v>
+        <v>6599676</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Модули памяти</t>
+          <t>Микрофоны</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>G.SKILL</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
+          <t>MD 431-II</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1069</v>
+        <v>9499</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
@@ -3492,14 +3490,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-9.7%</t>
+          <t>-22.2%</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>32</v>
+        <v>447.85</v>
       </c>
       <c r="I60" t="n">
-        <v>1184</v>
+        <v>12204</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
@@ -3508,15 +3506,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>72</v>
+        <v>783</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>F4-2666C19S-16GRS</t>
+          <t>MD 431-II</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>7258586</v>
+        <v>3235478</v>
       </c>
     </row>
     <row r="61">
@@ -3532,26 +3530,26 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
+          <t>SODIMM 16G DDR4 2666MHz G.SKILL Ripjaws 1.2V CL19 (box) (F4-2666C19S-16GRS)</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>619</v>
+        <v>1069</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>-9.7%</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I61" t="n">
-        <v>629</v>
+        <v>1184</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
@@ -3560,15 +3558,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>U0103402</t>
+          <t>F4-2666C19S-16GRS</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1857277</v>
+        <v>7258586</v>
       </c>
     </row>
     <row r="62">
@@ -3579,31 +3577,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GOLDEN MEMORY</t>
+          <t>G.SKILL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GM16S11/8)</t>
+          <t>SODIMM DDR3L 8GB, 1866MHz, PC3-15000, Ripjaws (F3-1866C11S-8GRSL)</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>469</v>
+        <v>619</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>-1.6%</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I62" t="n">
-        <v>481</v>
+        <v>629</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
@@ -3612,15 +3610,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>U0275940</t>
+          <t>U0103402</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2630535</v>
+        <v>1857277</v>
       </c>
     </row>
     <row r="63">
@@ -3631,16 +3629,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GOODRAM</t>
+          <t>GOLDEN MEMORY</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DDR3L 8Gb, 1600MHz, PC3-12800 (W-MEM1600R3D48G)</t>
+          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GM16S11/8)</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
@@ -3648,14 +3646,14 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-60.6%</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I63" t="n">
-        <v>1013</v>
+        <v>481</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
@@ -3664,13 +3662,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>300</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3309121</v>
+        <v>27</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>U0275940</t>
+        </is>
       </c>
       <c r="N63" t="n">
-        <v>2775878</v>
+        <v>2630535</v>
       </c>
     </row>
     <row r="64">
@@ -3686,26 +3686,26 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DDR4 8GB, 2400MHz, PC4-19200 (GR2400D464L17S/8G)</t>
+          <t>DDR3L 8Gb, 1600MHz, PC3-12800 (W-MEM1600R3D48G)</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>609</v>
+        <v>399</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>-60.6%</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>17.2</v>
+        <v>24</v>
       </c>
       <c r="I64" t="n">
-        <v>637</v>
+        <v>1013</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
@@ -3714,13 +3714,13 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>66</v>
+        <v>300</v>
       </c>
       <c r="M64" t="n">
-        <v>6329811</v>
+        <v>3309121</v>
       </c>
       <c r="N64" t="n">
-        <v>2124692</v>
+        <v>2775878</v>
       </c>
     </row>
     <row r="65">
@@ -3736,26 +3736,26 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GR1600S364L11/8G)</t>
+          <t>DDR4 8GB, 2400MHz, PC4-19200 (GR2400D464L17S/8G)</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-8.6%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>16.8</v>
+        <v>17.2</v>
       </c>
       <c r="I65" t="n">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
@@ -3764,11 +3764,13 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>127</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>66</v>
+      </c>
+      <c r="M65" t="n">
+        <v>6329811</v>
+      </c>
       <c r="N65" t="n">
-        <v>542951</v>
+        <v>2124692</v>
       </c>
     </row>
     <row r="66">
@@ -3779,16 +3781,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>GOODRAM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DDR3 16GB, 1600MHz, PC3-12800, ECC (KVR16LR11D4/16)</t>
+          <t>SODIMM DDR3 8GB, 1600MHz, PC3-12800 (GR1600S364L11/8G)</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
@@ -3796,31 +3798,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-80.2%</t>
+          <t>-8.6%</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>109</v>
+        <v>16.8</v>
       </c>
       <c r="I66" t="n">
-        <v>3031</v>
+        <v>634</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>826</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>U0102692</t>
-        </is>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>-1463462</v>
+        <v>542951</v>
       </c>
     </row>
     <row r="67">
@@ -3836,11 +3834,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DDR4 32GB, 2666MHz, PC4-21300, ECC Reg 2R (KSM26RD4/32MEI)</t>
+          <t>DDR3 16GB, 1600MHz, PC3-12800, ECC (KVR16LR11D4/16)</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1199</v>
+        <v>599</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
@@ -3848,14 +3846,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-76.3%</t>
+          <t>-80.2%</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>181.9</v>
+        <v>109</v>
       </c>
       <c r="I67" t="n">
-        <v>5057</v>
+        <v>3031</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
@@ -3864,15 +3862,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>KSM26RD4/32MEI</t>
+          <t>U0102692</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>-3392440</v>
+        <v>-1463462</v>
       </c>
     </row>
     <row r="68">
@@ -3883,16 +3881,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KINGSTON FURY</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DRAM 64GB 5200MT/s DDR5 CL40 DIMM (Kit of 2) FURY Beast Black EAN: 740617326550 (KF552C40BBK2-64)</t>
+          <t>DDR4 32GB, 2666MHz, PC4-21300, ECC Reg 2R (KSM26RD4/32MEI)</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>8199</v>
+        <v>1199</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
@@ -3900,31 +3898,31 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-39.7%</t>
+          <t>-76.3%</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>344.3</v>
+        <v>181.9</v>
       </c>
       <c r="I68" t="n">
-        <v>13600</v>
+        <v>5057</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>255</v>
+        <v>835</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>KF552C40BBK2-64</t>
+          <t>KSM26RD4/32MEI</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>8803411</v>
+        <v>-3392440</v>
       </c>
     </row>
     <row r="69">
@@ -3940,11 +3938,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DRAM 8GB 3200MHz DDR4 CL16 DIMM FURY Beast RGB EAN: 740617319439 (KF432C16BBA/8)</t>
+          <t>DRAM 64GB 5200MT/s DDR5 CL40 DIMM (Kit of 2) FURY Beast Black EAN: 740617326550 (KF552C40BBK2-64)</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1049</v>
+        <v>8199</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
@@ -3952,14 +3950,14 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-22.9%</t>
+          <t>-39.7%</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>34.43</v>
+        <v>344.3</v>
       </c>
       <c r="I69" t="n">
-        <v>1360</v>
+        <v>13600</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
@@ -3968,15 +3966,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>KF432C16BBA/8</t>
+          <t>KF552C40BBK2-64</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>7183218</v>
+        <v>8803411</v>
       </c>
     </row>
     <row r="70">
@@ -3992,11 +3990,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>KF556C40BBK2-16 (KF556C40BBK2-16)</t>
+          <t>DRAM 8GB 3200MHz DDR4 CL16 DIMM FURY Beast RGB EAN: 740617319439 (KF432C16BBA/8)</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3089</v>
+        <v>1049</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
@@ -4004,14 +4002,14 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-22.9%</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>77.54000000000001</v>
+        <v>34.43</v>
       </c>
       <c r="I70" t="n">
-        <v>2924</v>
+        <v>1360</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
@@ -4020,13 +4018,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>24</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3701564</v>
+        <v>257</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>KF432C16BBA/8</t>
+        </is>
       </c>
       <c r="N70" t="n">
-        <v>8806743</v>
+        <v>7183218</v>
       </c>
     </row>
     <row r="71">
@@ -4042,11 +4042,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SO-DIMM 16GB/3200 DDR4 Kingston Fury Impact (KF432S20IB/16)</t>
+          <t>KF556C40BBK2-16 (KF556C40BBK2-16)</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1339</v>
+        <v>3089</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
@@ -4054,49 +4054,49 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>34.5</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>1277</v>
+        <v>2924</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M71" t="n">
-        <v>372109</v>
+        <v>3701564</v>
       </c>
       <c r="N71" t="n">
-        <v>7451189</v>
+        <v>8806743</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Мультимедийные колонки</t>
+          <t>Модули памяти</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GOLON</t>
+          <t>KINGSTON FURY</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>RX-X8BT Black</t>
+          <t>SO-DIMM 16GB/3200 DDR4 Kingston Fury Impact (KF432S20IB/16)</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>349</v>
+        <v>1339</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
@@ -4104,14 +4104,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-14.9%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>10.37</v>
+        <v>34.5</v>
       </c>
       <c r="I72" t="n">
-        <v>410</v>
+        <v>1277</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
@@ -4120,15 +4120,13 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>261</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>606ba31258e1d3016e42cbfd</t>
-        </is>
+        <v>57</v>
+      </c>
+      <c r="M72" t="n">
+        <v>372109</v>
       </c>
       <c r="N72" t="n">
-        <v>7262515</v>
+        <v>7451189</v>
       </c>
     </row>
     <row r="73">
@@ -4144,7 +4142,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RX-X8BT Red</t>
+          <t>RX-X8BT Black</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4156,31 +4154,31 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-10.8%</t>
+          <t>-14.9%</t>
         </is>
       </c>
       <c r="H73" t="n">
         <v>10.37</v>
       </c>
       <c r="I73" t="n">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>ФотПз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>606ba19f58e1d3016e42cb61</t>
+          <t>606ba31258e1d3016e42cbfd</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>7262499</v>
+        <v>7262515</v>
       </c>
     </row>
     <row r="74">
@@ -4191,16 +4189,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HARMAN-KARDON</t>
+          <t>GOLON</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Citation 300 MKII Gray (HKCITATION300GRYEU)</t>
+          <t>RX-X8BT Red</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>13799</v>
+        <v>349</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
@@ -4208,31 +4206,31 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>-10.8%</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>326.92</v>
+        <v>10.37</v>
       </c>
       <c r="I74" t="n">
-        <v>12750</v>
+        <v>391</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотПз</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>HKCITATION300GRYEU</t>
+          <t>606ba19f58e1d3016e42cb61</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4307073</v>
+        <v>7262499</v>
       </c>
     </row>
     <row r="75">
@@ -4243,16 +4241,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>IDANCE</t>
+          <t>HARMAN-KARDON</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Beat Dude Mini 5W Фиолетовая (IBDM-100-PURPLE)</t>
+          <t>Citation 300 MKII Gray (HKCITATION300GRYEU)</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>199</v>
+        <v>13799</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
@@ -4260,14 +4258,14 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-17.1%</t>
+          <t>8.2%</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>8.73</v>
+        <v>326.92</v>
       </c>
       <c r="I75" t="n">
-        <v>240</v>
+        <v>12750</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
@@ -4276,13 +4274,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>589</v>
-      </c>
-      <c r="M75" t="n">
-        <v>155764</v>
+        <v>181</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>HKCITATION300GRYEU</t>
+        </is>
       </c>
       <c r="N75" t="n">
-        <v>3299547</v>
+        <v>4307073</v>
       </c>
     </row>
     <row r="76">
@@ -4293,16 +4293,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>IDANCE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Clip 4 Eco White (JBLCLIP4ECOWHT)</t>
+          <t>Beat Dude Mini 5W Фиолетовая (IBDM-100-PURPLE)</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2499</v>
+        <v>199</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
@@ -4310,14 +4310,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>-17.1%</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>50</v>
+        <v>8.73</v>
       </c>
       <c r="I76" t="n">
-        <v>1861</v>
+        <v>240</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
@@ -4326,15 +4326,13 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>100</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>JBLCLIP4ECOWHT</t>
-        </is>
+        <v>589</v>
+      </c>
+      <c r="M76" t="n">
+        <v>155764</v>
       </c>
       <c r="N76" t="n">
-        <v>9760781</v>
+        <v>3299547</v>
       </c>
     </row>
     <row r="77">
@@ -4350,11 +4348,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Flip Essential 2 (JBLFLIPES2)</t>
+          <t>Clip 4 Eco White (JBLCLIP4ECOWHT)</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3499</v>
+        <v>2499</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
@@ -4362,14 +4360,14 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13.7%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>82.73999999999999</v>
+        <v>50</v>
       </c>
       <c r="I77" t="n">
-        <v>3078</v>
+        <v>1861</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
@@ -4380,11 +4378,13 @@
       <c r="L77" t="n">
         <v>100</v>
       </c>
-      <c r="M77" t="n">
-        <v>1384165</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>JBLCLIP4ECOWHT</t>
+        </is>
       </c>
       <c r="N77" t="n">
-        <v>9151222</v>
+        <v>9760781</v>
       </c>
     </row>
     <row r="78">
@@ -4400,11 +4400,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Go Essential Black (JBLGOESBLK)</t>
+          <t>Flip Essential 2 (JBLFLIPES2)</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>999</v>
+        <v>3499</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
@@ -4412,29 +4412,29 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>13.7%</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>22.6</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>853</v>
+        <v>3078</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>6814832</v>
+        <v>1384165</v>
       </c>
       <c r="N78" t="n">
-        <v>8962442</v>
+        <v>9151222</v>
       </c>
     </row>
     <row r="79">
@@ -4450,11 +4450,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
+          <t>Go Essential Black (JBLGOESBLK)</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10999</v>
+        <v>999</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
@@ -4462,31 +4462,29 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>44.7%</t>
+          <t>17.2%</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>201.64</v>
+        <v>22.6</v>
       </c>
       <c r="I79" t="n">
-        <v>7602</v>
+        <v>853</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>129</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>JBLPULSE5BLK</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="M79" t="n">
+        <v>6814832</v>
       </c>
       <c r="N79" t="n">
-        <v>9648680</v>
+        <v>8962442</v>
       </c>
     </row>
     <row r="80">
@@ -4502,7 +4500,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Xtreme 3 Black (JBLXTREME3BLKEU)</t>
+          <t>Pulse 5 Black (JBLPULSE5BLK)</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -4514,14 +4512,14 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20.4%</t>
+          <t>44.7%</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>246.81</v>
+        <v>201.64</v>
       </c>
       <c r="I80" t="n">
-        <v>9132</v>
+        <v>7602</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
@@ -4530,11 +4528,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>8</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>JBLPULSE5BLK</t>
+        </is>
+      </c>
       <c r="N80" t="n">
-        <v>5668153</v>
+        <v>9648680</v>
       </c>
     </row>
     <row r="81">
@@ -4550,11 +4552,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Акустика JBL Link Portable Gray (JBLLINKPORGRY)</t>
+          <t>Xtreme 3 Black (JBLXTREME3BLKEU)</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5499</v>
+        <v>10999</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
@@ -4562,14 +4564,14 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>20.4%</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>113.79</v>
+        <v>246.81</v>
       </c>
       <c r="I81" t="n">
-        <v>4290</v>
+        <v>9132</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
@@ -4578,15 +4580,11 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>108</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>5f4d44b0ea159163986f0b8d</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>5408227</v>
+        <v>5668153</v>
       </c>
     </row>
     <row r="82">
@@ -4597,16 +4595,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>REAL-EL</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>S-2030 Black</t>
+          <t>Акустика JBL Link Portable Gray (JBLLINKPORGRY)</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6599</v>
+        <v>5499</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
@@ -4614,29 +4612,31 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-17.5%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>209.37</v>
+        <v>113.79</v>
       </c>
       <c r="I82" t="n">
-        <v>7998</v>
+        <v>4290</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
-      </c>
-      <c r="M82" t="n">
-        <v>428453</v>
+        <v>108</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>5f4d44b0ea159163986f0b8d</t>
+        </is>
       </c>
       <c r="N82" t="n">
-        <v>-9078520</v>
+        <v>5408227</v>
       </c>
     </row>
     <row r="83">
@@ -4647,16 +4647,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>REAL-EL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mi Portable Bluetooth Speaker mini (BHR4802GL, XMYX04WM)</t>
+          <t>S-2030 Black</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>769</v>
+        <v>6599</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
@@ -4664,51 +4664,49 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-17.5%</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>20.14</v>
+        <v>209.37</v>
       </c>
       <c r="I83" t="n">
-        <v>760</v>
+        <v>7998</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>31</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>BHR4802GL</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>428453</v>
       </c>
       <c r="N83" t="n">
-        <v>6126020</v>
+        <v>-9078520</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Мыши</t>
+          <t>Мультимедийные колонки</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A-4 TECH</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>G3-200N Black</t>
+          <t>Mi Portable Bluetooth Speaker mini (BHR4802GL, XMYX04WM)</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>289</v>
+        <v>769</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
@@ -4716,14 +4714,14 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>7.02</v>
+        <v>20.14</v>
       </c>
       <c r="I84" t="n">
-        <v>260</v>
+        <v>760</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
@@ -4732,15 +4730,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0202631</t>
+          <t>BHR4802GL</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>711316</v>
+        <v>6126020</v>
       </c>
     </row>
     <row r="85">
@@ -4756,11 +4754,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>OP-720 USB Black</t>
+          <t>G3-200N Black</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
@@ -4768,14 +4766,14 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18.2%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>3.74</v>
+        <v>7.02</v>
       </c>
       <c r="I85" t="n">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
@@ -4784,11 +4782,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0202631</t>
+        </is>
+      </c>
       <c r="N85" t="n">
-        <v>83150</v>
+        <v>711316</v>
       </c>
     </row>
     <row r="86">
@@ -4799,16 +4801,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>A-4 TECH</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Point MM-756 Black (52756)</t>
+          <t>OP-720 USB Black</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
@@ -4816,14 +4818,14 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26.1%</t>
+          <t>18.2%</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>2.26</v>
+        <v>3.74</v>
       </c>
       <c r="I86" t="n">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
@@ -4834,11 +4836,9 @@
       <c r="L86" t="n">
         <v>1</v>
       </c>
-      <c r="M86" t="n">
-        <v>620102</v>
-      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>4085857</v>
+        <v>83150</v>
       </c>
     </row>
     <row r="87">
@@ -4854,11 +4854,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Мишка Defender Accura MM-295, бездротова,6 кн. до 1600 dpi, чорна (52295)</t>
+          <t>Point MM-756 Black (52756)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
@@ -4866,29 +4866,29 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>4.8</v>
+        <v>2.26</v>
       </c>
       <c r="I87" t="n">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>207633</v>
+        <v>620102</v>
       </c>
       <c r="N87" t="n">
-        <v>2823917</v>
+        <v>4085857</v>
       </c>
     </row>
     <row r="88">
@@ -4904,11 +4904,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Мишка Defender Accura MM-935, 4кн., 1600dpi, сіра (52936)</t>
+          <t>Мишка Defender Accura MM-295, бездротова,6 кн. до 1600 dpi, чорна (52295)</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
@@ -4916,14 +4916,14 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3.34</v>
+        <v>4.8</v>
       </c>
       <c r="I88" t="n">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="M88" t="n">
-        <v>164179</v>
+        <v>207633</v>
       </c>
       <c r="N88" t="n">
-        <v>2550713</v>
+        <v>2823917</v>
       </c>
     </row>
     <row r="89">
@@ -4949,16 +4949,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GEMBIRD</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MUSW-4B-05</t>
+          <t>Мишка Defender Accura MM-935, 4кн., 1600dpi, сіра (52936)</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
@@ -4966,29 +4966,29 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11.9%</t>
+          <t>26.2%</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="I89" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="M89" t="n">
-        <v>1605654</v>
+        <v>164179</v>
       </c>
       <c r="N89" t="n">
-        <v>9330462</v>
+        <v>2550713</v>
       </c>
     </row>
     <row r="90">
@@ -5004,11 +5004,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
+          <t>MUSW-4B-05</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
@@ -5016,31 +5016,29 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>11.9%</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="I90" t="n">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>36</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>U0720798</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1605654</v>
       </c>
       <c r="N90" t="n">
-        <v>10063053</v>
+        <v>9330462</v>
       </c>
     </row>
     <row r="91">
@@ -5051,16 +5049,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GENIUS</t>
+          <t>GEMBIRD</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DX-125 USB Black (31010106100)</t>
+          <t>Мышка Gembird MUS-6B-02 USB Black (MUS-6B-02)</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
@@ -5068,14 +5066,14 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22.4%</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2.36</v>
+        <v>5.5</v>
       </c>
       <c r="I91" t="n">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
@@ -5084,13 +5082,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>16</v>
-      </c>
-      <c r="M91" t="n">
-        <v>6261261</v>
+        <v>36</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>U0720798</t>
+        </is>
       </c>
       <c r="N91" t="n">
-        <v>1839100</v>
+        <v>10063053</v>
       </c>
     </row>
     <row r="92">
@@ -5101,16 +5101,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GLORIOUS</t>
+          <t>GENIUS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Model O Matte White (GO-White)</t>
+          <t>DX-125 USB Black (31010106100)</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1999</v>
+        <v>109</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
@@ -5118,29 +5118,29 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>22.4%</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>48.06</v>
+        <v>2.36</v>
       </c>
       <c r="I92" t="n">
-        <v>1836</v>
+        <v>89</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M92" t="n">
-        <v>64374</v>
+        <v>6261261</v>
       </c>
       <c r="N92" t="n">
-        <v>4212244</v>
+        <v>1839100</v>
       </c>
     </row>
     <row r="93">
@@ -5151,16 +5151,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>GLORIOUS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Мышь Pulsar Essential (HTM-308) Yellow</t>
+          <t>Model O Matte White (GO-White)</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>799</v>
+        <v>1999</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
@@ -5168,14 +5168,14 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>29.1%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>16.2</v>
+        <v>48.06</v>
       </c>
       <c r="I93" t="n">
-        <v>619</v>
+        <v>1836</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
@@ -5187,10 +5187,10 @@
         <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>66042</v>
+        <v>64374</v>
       </c>
       <c r="N93" t="n">
-        <v>9400866</v>
+        <v>4212244</v>
       </c>
     </row>
     <row r="94">
@@ -5206,11 +5206,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Мышь беспроводная Pulsar Wireless (HTM-317) Lilac</t>
+          <t>Мышь Pulsar Essential (HTM-308) Yellow</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1599</v>
+        <v>799</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
@@ -5218,29 +5218,29 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>29.1%</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>32.42</v>
+        <v>16.2</v>
       </c>
       <c r="I94" t="n">
-        <v>1200</v>
+        <v>619</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>66038</v>
+        <v>66042</v>
       </c>
       <c r="N94" t="n">
-        <v>9303637</v>
+        <v>9400866</v>
       </c>
     </row>
     <row r="95">
@@ -5251,16 +5251,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HEWLETT PACKARD</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
+          <t>Мышь беспроводная Pulsar Wireless (HTM-317) Lilac</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>299</v>
+        <v>1599</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
@@ -5268,14 +5268,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>7.24</v>
+        <v>32.42</v>
       </c>
       <c r="I95" t="n">
-        <v>286</v>
+        <v>1200</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
@@ -5284,13 +5284,13 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="M95" t="n">
-        <v>810643</v>
+        <v>66038</v>
       </c>
       <c r="N95" t="n">
-        <v>6899120</v>
+        <v>9303637</v>
       </c>
     </row>
     <row r="96">
@@ -5301,48 +5301,46 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IMICE</t>
+          <t>HEWLETT PACKARD</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>E-1800 Black</t>
+          <t>Мишка HP 125 Wired, 3кн., 1200 dpi, чорна (265A9AA)</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>4.5</v>
+        <v>7.24</v>
       </c>
       <c r="I96" t="n">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>FuaCM</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>750</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>5dd3b30f5ca49a0052a3ff8e</t>
-        </is>
+        <v>281</v>
+      </c>
+      <c r="M96" t="n">
+        <v>810643</v>
       </c>
       <c r="N96" t="n">
-        <v>5044681</v>
+        <v>6899120</v>
       </c>
     </row>
     <row r="97">
@@ -5353,46 +5351,48 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>IMICE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Legion M600s Wireless GM (GY51H47354)</t>
+          <t>E-1800 Black</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3599</v>
+        <v>159</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>77.81999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="I97" t="n">
-        <v>2880</v>
+        <v>122</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>FuaCM</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>63</v>
-      </c>
-      <c r="M97" t="n">
-        <v>3717833</v>
+        <v>750</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>5dd3b30f5ca49a0052a3ff8e</t>
+        </is>
       </c>
       <c r="N97" t="n">
-        <v>9367262</v>
+        <v>5044681</v>
       </c>
     </row>
     <row r="98">
@@ -5403,16 +5403,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>G502 Hero USB Black</t>
+          <t>Legion M600s Wireless GM (GY51H47354)</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1949</v>
+        <v>3599</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
@@ -5420,29 +5420,29 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>53</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="I98" t="n">
-        <v>1999</v>
+        <v>2880</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="M98" t="n">
-        <v>246576</v>
+        <v>3717833</v>
       </c>
       <c r="N98" t="n">
-        <v>-3143597</v>
+        <v>9367262</v>
       </c>
     </row>
     <row r="99">
@@ -5458,11 +5458,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pebble M350 Wireless Lavender Lemonade (910-006752)</t>
+          <t>G502 Hero USB Black</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>779</v>
+        <v>1949</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
@@ -5470,29 +5470,29 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>19.37</v>
+        <v>53</v>
       </c>
       <c r="I99" t="n">
-        <v>731</v>
+        <v>1999</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M99" t="n">
-        <v>435525</v>
+        <v>246576</v>
       </c>
       <c r="N99" t="n">
-        <v>9287953</v>
+        <v>-3143597</v>
       </c>
     </row>
     <row r="100">
@@ -5508,11 +5508,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Мышь POP Mouse with emoji pink (910-006548)</t>
+          <t>Pebble M350 Wireless Lavender Lemonade (910-006752)</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1279</v>
+        <v>779</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>33.91</v>
+        <v>19.37</v>
       </c>
       <c r="I100" t="n">
-        <v>1279</v>
+        <v>731</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
@@ -5536,15 +5536,13 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>6467675|78c976bc-5e63-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="M100" t="n">
+        <v>435525</v>
       </c>
       <c r="N100" t="n">
-        <v>8452961</v>
+        <v>9287953</v>
       </c>
     </row>
     <row r="101">
@@ -5555,16 +5553,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MEDIA-TECH</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Мишка Media-Tech Cobra Pro, 3200dpi, 6 кн., чорна (MT1115)</t>
+          <t>Мышь POP Mouse with emoji pink (910-006548)</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>249</v>
+        <v>1279</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
@@ -5572,14 +5570,14 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>8.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>6.09</v>
+        <v>33.91</v>
       </c>
       <c r="I101" t="n">
-        <v>230</v>
+        <v>1279</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
@@ -5588,13 +5586,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>145</v>
-      </c>
-      <c r="M101" t="n">
-        <v>150729</v>
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>6467675|78c976bc-5e63-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N101" t="n">
-        <v>2449527</v>
+        <v>8452961</v>
       </c>
     </row>
     <row r="102">
@@ -5605,16 +5605,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>MEDIA-TECH</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
+          <t>Мишка Media-Tech Cobra Pro, 3200dpi, 6 кн., чорна (MT1115)</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1179</v>
+        <v>249</v>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
@@ -5622,14 +5622,14 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-31.9%</t>
+          <t>8.3%</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>44.7</v>
+        <v>6.09</v>
       </c>
       <c r="I102" t="n">
-        <v>1733</v>
+        <v>230</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
@@ -5638,15 +5638,13 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>148</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>S12-0400D20-C54</t>
-        </is>
+        <v>145</v>
+      </c>
+      <c r="M102" t="n">
+        <v>150729</v>
       </c>
       <c r="N102" t="n">
-        <v>8517305</v>
+        <v>2449527</v>
       </c>
     </row>
     <row r="103">
@@ -5657,16 +5655,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Мышь Basilisk V3 (RZ01-04000100-R3M1)</t>
+          <t>Clutch GM41 Lightweight Wireless V2 (S12-0400D20-C54)</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2499</v>
+        <v>1179</v>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
@@ -5674,14 +5672,14 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>19.0%</t>
+          <t>-31.9%</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>55.68</v>
+        <v>44.7</v>
       </c>
       <c r="I103" t="n">
-        <v>2100</v>
+        <v>1733</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
@@ -5690,13 +5688,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>10</v>
-      </c>
-      <c r="M103" t="n">
-        <v>65637</v>
+        <v>148</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>S12-0400D20-C54</t>
+        </is>
       </c>
       <c r="N103" t="n">
-        <v>7721699</v>
+        <v>8517305</v>
       </c>
     </row>
     <row r="104">
@@ -5707,16 +5707,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>STEELSERIES</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Aerox 3 Wireless Snow (62608)</t>
+          <t>Мышь Basilisk V3 (RZ01-04000100-R3M1)</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3499</v>
+        <v>2499</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
@@ -5724,14 +5724,14 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>19.0%</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>95.75</v>
+        <v>55.68</v>
       </c>
       <c r="I104" t="n">
-        <v>3400</v>
+        <v>2100</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>387</v>
+        <v>10</v>
       </c>
       <c r="M104" t="n">
-        <v>65785</v>
+        <v>65637</v>
       </c>
       <c r="N104" t="n">
-        <v>8355465</v>
+        <v>7721699</v>
       </c>
     </row>
     <row r="105">
@@ -5762,26 +5762,26 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Rival 5 (62551)</t>
+          <t>Aerox 3 Wireless Snow (62608)</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2999</v>
+        <v>3499</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>86.3%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>58.63</v>
+        <v>95.75</v>
       </c>
       <c r="I105" t="n">
-        <v>1610</v>
+        <v>3400</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
@@ -5790,13 +5790,13 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>619</v>
+        <v>387</v>
       </c>
       <c r="M105" t="n">
-        <v>65549</v>
+        <v>65785</v>
       </c>
       <c r="N105" t="n">
-        <v>7128903</v>
+        <v>8355465</v>
       </c>
     </row>
     <row r="106">
@@ -5807,31 +5807,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRUST</t>
+          <t>STEELSERIES</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Mydo Silent Click Wireless Mouse Red (21871)</t>
+          <t>Rival 5 (62551)</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>199</v>
+        <v>2999</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>-18.7%</t>
+          <t>86.3%</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>6.6</v>
+        <v>58.63</v>
       </c>
       <c r="I106" t="n">
-        <v>245</v>
+        <v>1610</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
@@ -5840,13 +5840,13 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>41</v>
+        <v>619</v>
       </c>
       <c r="M106" t="n">
-        <v>6378232</v>
+        <v>65549</v>
       </c>
       <c r="N106" t="n">
-        <v>2810008</v>
+        <v>7128903</v>
       </c>
     </row>
     <row r="107">
@@ -5857,16 +5857,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>VERTUX</t>
+          <t>TRUST</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dominator USB Grey</t>
+          <t>Mydo Silent Click Wireless Mouse Red (21871)</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>649</v>
+        <v>199</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
@@ -5874,14 +5874,14 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>40.3%</t>
+          <t>-18.7%</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>12.26</v>
+        <v>6.6</v>
       </c>
       <c r="I107" t="n">
-        <v>463</v>
+        <v>245</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
@@ -5890,50 +5890,48 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>106</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="M107" t="n">
+        <v>6378232</v>
       </c>
       <c r="N107" t="n">
-        <v>7309538</v>
+        <v>2810008</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Мыши - коврики</t>
+          <t>Мыши</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DEFENDER</t>
+          <t>VERTUX</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Journey 6шт. (50415)</t>
+          <t>Dominator USB Grey</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>89</v>
+        <v>649</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22.8%</t>
+          <t>40.3%</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1.95</v>
+        <v>12.26</v>
       </c>
       <c r="I108" t="n">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
@@ -5942,13 +5940,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>50</v>
-      </c>
-      <c r="M108" t="n">
-        <v>132815</v>
+        <v>106</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>4072486|75dc153b-f936-11eb-90f5-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N108" t="n">
-        <v>1714050</v>
+        <v>7309538</v>
       </c>
     </row>
     <row r="109">
@@ -5964,26 +5964,26 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>School (в ассортименте) (50305)</t>
+          <t>Journey 6шт. (50415)</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>49.8%</t>
+          <t>22.8%</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="I109" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
@@ -5992,11 +5992,13 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>15</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="M109" t="n">
+        <v>132815</v>
+      </c>
       <c r="N109" t="n">
-        <v>754119</v>
+        <v>1714050</v>
       </c>
     </row>
     <row r="110">
@@ -6007,16 +6009,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LOGITECH</t>
+          <t>DEFENDER</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>LOGITECH G840 XL Gaming Mouse Pad-LOL-KDA2.0-EER2-#933 (L943-000457)</t>
+          <t>School (в ассортименте) (50305)</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1749</v>
+        <v>39</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
@@ -6024,14 +6026,14 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-14.7%</t>
+          <t>49.8%</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>55.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I110" t="n">
-        <v>2052</v>
+        <v>27</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
@@ -6040,15 +6042,11 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>93</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>L943-000457</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>7515973</v>
+        <v>754119</v>
       </c>
     </row>
     <row r="111">
@@ -6064,11 +6062,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Игровой коврик Desk Mat Studio Series-Darker Rose (956-000053)</t>
+          <t>LOGITECH G840 XL Gaming Mouse Pad-LOL-KDA2.0-EER2-#933 (L943-000457)</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1199</v>
+        <v>1749</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
@@ -6076,14 +6074,14 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>35.4%</t>
+          <t>-14.7%</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>23.48</v>
+        <v>55.14</v>
       </c>
       <c r="I111" t="n">
-        <v>886</v>
+        <v>2052</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
@@ -6092,15 +6090,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>6514865|84ceb238-785e-11ec-90f8-b4a9fc43a3f9</t>
+          <t>L943-000457</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>8452967</v>
+        <v>7515973</v>
       </c>
     </row>
     <row r="112">
@@ -6111,16 +6109,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>LOGITECH</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
+          <t>Игровой коврик Desk Mat Studio Series-Darker Rose (956-000053)</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2799</v>
+        <v>1199</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
@@ -6128,14 +6126,14 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>35.4%</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>69.23</v>
+        <v>23.48</v>
       </c>
       <c r="I112" t="n">
-        <v>1890</v>
+        <v>886</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
@@ -6144,33 +6142,35 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>778</v>
-      </c>
-      <c r="M112" t="n">
-        <v>64013</v>
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>6514865|84ceb238-785e-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N112" t="n">
-        <v>4161739</v>
+        <v>8452967</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Наушники</t>
+          <t>Мыши - коврики</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BASEUS</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Навушники Baseus (NGTW230002)</t>
+          <t>Goliathus Chroma Extended Quartz (RZ02-02500316-R3M1)</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2699</v>
+        <v>2799</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
@@ -6178,14 +6178,14 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>80.1%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>40.5</v>
+        <v>69.23</v>
       </c>
       <c r="I113" t="n">
-        <v>1499</v>
+        <v>1890</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
@@ -6194,15 +6194,13 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>62</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>NGTW230002</t>
-        </is>
+        <v>778</v>
+      </c>
+      <c r="M113" t="n">
+        <v>64013</v>
       </c>
       <c r="N113" t="n">
-        <v>9239460</v>
+        <v>4161739</v>
       </c>
     </row>
     <row r="114">
@@ -6213,16 +6211,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BOROFONE</t>
+          <t>BASEUS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BW26 White (BW26W)</t>
+          <t>Навушники Baseus (NGTW230002)</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>339</v>
+        <v>2699</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
@@ -6230,29 +6228,31 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14.5%</t>
+          <t>80.1%</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>8</v>
+        <v>40.5</v>
       </c>
       <c r="I114" t="n">
-        <v>296</v>
+        <v>1499</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>59</v>
-      </c>
-      <c r="M114" t="n">
-        <v>24160</v>
+        <v>62</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>NGTW230002</t>
+        </is>
       </c>
       <c r="N114" t="n">
-        <v>9599567</v>
+        <v>9239460</v>
       </c>
     </row>
     <row r="115">
@@ -6263,16 +6263,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CANYON</t>
+          <t>BOROFONE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CNE-CEPM01B Black</t>
+          <t>BW26 White (BW26W)</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
@@ -6280,29 +6280,29 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>14.5%</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>3.55</v>
+        <v>8</v>
       </c>
       <c r="I115" t="n">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="M115" t="n">
-        <v>53945</v>
+        <v>24160</v>
       </c>
       <c r="N115" t="n">
-        <v>5221340</v>
+        <v>9599567</v>
       </c>
     </row>
     <row r="116">
@@ -6318,11 +6318,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TWS-6 Black (CNS-TWS6B)</t>
+          <t>CNE-CEPM01B Black</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>649</v>
+        <v>179</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
@@ -6330,14 +6330,14 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>16.84</v>
+        <v>3.55</v>
       </c>
       <c r="I116" t="n">
-        <v>644</v>
+        <v>136</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
@@ -6348,13 +6348,11 @@
       <c r="L116" t="n">
         <v>1</v>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>CNS-TWS6B</t>
-        </is>
+      <c r="M116" t="n">
+        <v>53945</v>
       </c>
       <c r="N116" t="n">
-        <v>9793596</v>
+        <v>5221340</v>
       </c>
     </row>
     <row r="117">
@@ -6365,16 +6363,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HATOR</t>
+          <t>CANYON</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Hypergang 7.1 USB Black (HTA-840)</t>
+          <t>TWS-6 Black (CNS-TWS6B)</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2199</v>
+        <v>649</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
@@ -6382,29 +6380,31 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>45.66</v>
+        <v>16.84</v>
       </c>
       <c r="I117" t="n">
-        <v>1690</v>
+        <v>644</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>50</v>
-      </c>
-      <c r="M117" t="n">
-        <v>453818</v>
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>CNS-TWS6B</t>
+        </is>
       </c>
       <c r="N117" t="n">
-        <v>9769963</v>
+        <v>9793596</v>
       </c>
     </row>
     <row r="118">
@@ -6420,11 +6420,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hypergang EVO (HTA-810)</t>
+          <t>Hypergang 7.1 USB Black (HTA-840)</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1699</v>
+        <v>2199</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
@@ -6432,14 +6432,14 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>35.12</v>
+        <v>45.66</v>
       </c>
       <c r="I118" t="n">
-        <v>1300</v>
+        <v>1690</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
@@ -6451,10 +6451,10 @@
         <v>50</v>
       </c>
       <c r="M118" t="n">
-        <v>294440</v>
+        <v>453818</v>
       </c>
       <c r="N118" t="n">
-        <v>4205308</v>
+        <v>9769963</v>
       </c>
     </row>
     <row r="119">
@@ -6470,11 +6470,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Hypergang EVO Elite Black (HTA-830)</t>
+          <t>Hypergang EVO (HTA-810)</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1999</v>
+        <v>1699</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
@@ -6482,14 +6482,14 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>33.7%</t>
+          <t>30.7%</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>40.39</v>
+        <v>35.12</v>
       </c>
       <c r="I119" t="n">
-        <v>1495</v>
+        <v>1300</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
@@ -6501,10 +6501,10 @@
         <v>50</v>
       </c>
       <c r="M119" t="n">
-        <v>65623</v>
+        <v>294440</v>
       </c>
       <c r="N119" t="n">
-        <v>8355541</v>
+        <v>4205308</v>
       </c>
     </row>
     <row r="120">
@@ -6515,16 +6515,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>HOCO</t>
+          <t>HATOR</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EW29 White</t>
+          <t>Hypergang EVO Elite Black (HTA-830)</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>499</v>
+        <v>1999</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
@@ -6532,29 +6532,29 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>13.1%</t>
+          <t>33.7%</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>11.55</v>
+        <v>40.39</v>
       </c>
       <c r="I120" t="n">
-        <v>442</v>
+        <v>1495</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M120" t="n">
-        <v>24602</v>
+        <v>65623</v>
       </c>
       <c r="N120" t="n">
-        <v>10660638</v>
+        <v>8355541</v>
       </c>
     </row>
     <row r="121">
@@ -6565,16 +6565,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>HOCO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Live Flex Black (JBLLIVEFLEXBLK)</t>
+          <t>EW29 White</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>4999</v>
+        <v>499</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
@@ -6582,31 +6582,29 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>13.1%</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>102.65</v>
+        <v>11.55</v>
       </c>
       <c r="I121" t="n">
-        <v>3799</v>
+        <v>442</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>38</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>JBLLIVEFLEXBLK</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>24602</v>
       </c>
       <c r="N121" t="n">
-        <v>10160854</v>
+        <v>10660638</v>
       </c>
     </row>
     <row r="122">
@@ -6622,41 +6620,43 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>T110 Black (JBLT110BLK)</t>
+          <t>Live Flex Black (JBLLIVEFLEXBLK)</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>299</v>
+        <v>4999</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>6</v>
+        <v>102.65</v>
       </c>
       <c r="I122" t="n">
-        <v>222</v>
+        <v>3799</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L122" t="n">
         <v>38</v>
       </c>
-      <c r="M122" t="n">
-        <v>275085</v>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>JBLLIVEFLEXBLK</t>
+        </is>
       </c>
       <c r="N122" t="n">
-        <v>2085204</v>
+        <v>10160854</v>
       </c>
     </row>
     <row r="123">
@@ -6672,41 +6672,41 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
+          <t>T110 Black (JBLT110BLK)</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1699</v>
+        <v>299</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>34.6%</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>36.2</v>
+        <v>6</v>
       </c>
       <c r="I123" t="n">
-        <v>1365</v>
+        <v>222</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M123" t="n">
-        <v>1392907</v>
+        <v>275085</v>
       </c>
       <c r="N123" t="n">
-        <v>9865027</v>
+        <v>2085204</v>
       </c>
     </row>
     <row r="124">
@@ -6717,16 +6717,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Essential Stereo Headset (4XD0K25030)</t>
+          <t>Tune 520BT Blue (JBLT520BTBLUEU)</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>999</v>
+        <v>1699</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
@@ -6734,14 +6734,14 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>24.5%</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>23.76</v>
+        <v>36.2</v>
       </c>
       <c r="I124" t="n">
-        <v>880</v>
+        <v>1365</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
@@ -6750,13 +6750,13 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M124" t="n">
-        <v>3712243</v>
+        <v>1392907</v>
       </c>
       <c r="N124" t="n">
-        <v>6907039</v>
+        <v>9865027</v>
       </c>
     </row>
     <row r="125">
@@ -6767,16 +6767,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>RP-HJE125E Black</t>
+          <t>Essential Stereo Headset (4XD0K25030)</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>199</v>
+        <v>999</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
@@ -6784,14 +6784,14 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>-12.2%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>5.92</v>
+        <v>23.76</v>
       </c>
       <c r="I125" t="n">
-        <v>227</v>
+        <v>880</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
@@ -6800,13 +6800,13 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="M125" t="n">
-        <v>6028985</v>
+        <v>3712243</v>
       </c>
       <c r="N125" t="n">
-        <v>571149</v>
+        <v>6907039</v>
       </c>
     </row>
     <row r="126">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RP-HJE125E Blue</t>
+          <t>RP-HJE125E Black</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -6834,27 +6834,29 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>-12.2%</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>6.66</v>
+        <v>5.92</v>
       </c>
       <c r="I126" t="n">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>86</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>6028985</v>
+      </c>
       <c r="N126" t="n">
-        <v>571150</v>
+        <v>571149</v>
       </c>
     </row>
     <row r="127">
@@ -6870,7 +6872,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>RP-HJE125E Pink</t>
+          <t>RP-HJE125E Blue</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -6882,29 +6884,27 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-23.0%</t>
+          <t>-19.8%</t>
         </is>
       </c>
       <c r="H127" t="n">
         <v>6.66</v>
       </c>
       <c r="I127" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>149</v>
-      </c>
-      <c r="M127" t="n">
-        <v>6040397</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>571148</v>
+        <v>571150</v>
       </c>
     </row>
     <row r="128">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>RP-HJE125E Red</t>
+          <t>RP-HJE125E Pink</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -6950,9 +6950,11 @@
       <c r="L128" t="n">
         <v>149</v>
       </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>6040397</v>
+      </c>
       <c r="N128" t="n">
-        <v>572643</v>
+        <v>571148</v>
       </c>
     </row>
     <row r="129">
@@ -6968,7 +6970,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>RP-HJE125E Violet</t>
+          <t>RP-HJE125E Red</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -6980,27 +6982,27 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>-20.9%</t>
+          <t>-23.0%</t>
         </is>
       </c>
       <c r="H129" t="n">
         <v>6.66</v>
       </c>
       <c r="I129" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
-        <v>571147</v>
+        <v>572643</v>
       </c>
     </row>
     <row r="130">
@@ -7016,11 +7018,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>RP-TCM115GC-K Black (RP-TCM115GCK)</t>
+          <t>RP-HJE125E Violet</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
@@ -7028,11 +7030,11 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>-20.9%</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>6.81</v>
+        <v>6.66</v>
       </c>
       <c r="I130" t="n">
         <v>252</v>
@@ -7040,17 +7042,15 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>80</v>
-      </c>
-      <c r="M130" t="n">
-        <v>93705</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>9194307</v>
+        <v>571147</v>
       </c>
     </row>
     <row r="131">
@@ -7061,16 +7061,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PHILIPS</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SHP2500/10</t>
+          <t>RP-TCM115GC-K Black (RP-TCM115GCK)</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>999</v>
+        <v>299</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
@@ -7078,14 +7078,14 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>22.7%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>22</v>
+        <v>6.81</v>
       </c>
       <c r="I131" t="n">
-        <v>814</v>
+        <v>252</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
@@ -7094,11 +7094,13 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>49</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="M131" t="n">
+        <v>93705</v>
+      </c>
       <c r="N131" t="n">
-        <v>198674</v>
+        <v>9194307</v>
       </c>
     </row>
     <row r="132">
@@ -7109,16 +7111,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROMATE</t>
+          <t>PHILIPS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Наушники Terra red (terra.maroon)</t>
+          <t>SHP2500/10</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>749</v>
+        <v>999</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
@@ -7126,14 +7128,14 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>-16.8%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>22.78</v>
+        <v>22</v>
       </c>
       <c r="I132" t="n">
-        <v>900</v>
+        <v>814</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
@@ -7142,15 +7144,11 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>240</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
-        </is>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
-        <v>9099706</v>
+        <v>198674</v>
       </c>
     </row>
     <row r="133">
@@ -7161,16 +7159,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>QCY</t>
+          <t>PROMATE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HT05 White</t>
+          <t>Наушники Terra red (terra.maroon)</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1499</v>
+        <v>749</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
@@ -7178,29 +7176,31 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>50.9%</t>
+          <t>-16.8%</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>26</v>
+        <v>22.78</v>
       </c>
       <c r="I133" t="n">
-        <v>994</v>
+        <v>900</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="n">
-        <v>414802</v>
+        <v>240</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>6468257|10781dd4-5f07-11ec-90f8-b4a9fc43a3f9</t>
+        </is>
       </c>
       <c r="N133" t="n">
-        <v>8911432</v>
+        <v>9099706</v>
       </c>
     </row>
     <row r="134">
@@ -7211,16 +7211,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RAZER</t>
+          <t>QCY</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Гарнитура Hammerhead True Wireless X (RZ12-03830100-R3G1)</t>
+          <t>HT05 White</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2299</v>
+        <v>1499</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
@@ -7228,29 +7228,29 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>50.9%</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>54.95</v>
+        <v>26</v>
       </c>
       <c r="I134" t="n">
-        <v>2100</v>
+        <v>994</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
       <c r="M134" t="n">
-        <v>65594</v>
+        <v>414802</v>
       </c>
       <c r="N134" t="n">
-        <v>7130817</v>
+        <v>8911432</v>
       </c>
     </row>
     <row r="135">
@@ -7261,16 +7261,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SENNHEISER</t>
+          <t>RAZER</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HDR 175</t>
+          <t>Гарнитура Hammerhead True Wireless X (RZ12-03830100-R3G1)</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4199</v>
+        <v>2299</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
@@ -7278,29 +7278,29 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-24.7%</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>141.2</v>
+        <v>54.95</v>
       </c>
       <c r="I135" t="n">
-        <v>5578</v>
+        <v>2100</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="M135" t="n">
-        <v>505582</v>
+        <v>65594</v>
       </c>
       <c r="N135" t="n">
-        <v>-1282398</v>
+        <v>7130817</v>
       </c>
     </row>
     <row r="136">
@@ -7316,11 +7316,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>RS 120-8 II</t>
+          <t>HDR 175</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1349</v>
+        <v>4199</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
@@ -7328,14 +7328,14 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-47.7%</t>
+          <t>-24.7%</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>96.09</v>
+        <v>141.2</v>
       </c>
       <c r="I136" t="n">
-        <v>2581</v>
+        <v>5578</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
@@ -7344,11 +7344,13 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>381</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>282</v>
+      </c>
+      <c r="M136" t="n">
+        <v>505582</v>
+      </c>
       <c r="N136" t="n">
-        <v>-47653</v>
+        <v>-1282398</v>
       </c>
     </row>
     <row r="137">
@@ -7359,16 +7361,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SUPERLUX</t>
+          <t>SENNHEISER</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HD662EVO Black</t>
+          <t>RS 120-8 II</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1099</v>
+        <v>1349</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
@@ -7376,14 +7378,14 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-25.8%</t>
+          <t>-47.7%</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>37.47</v>
+        <v>96.09</v>
       </c>
       <c r="I137" t="n">
-        <v>1481</v>
+        <v>2581</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
@@ -7392,13 +7394,11 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>176</v>
-      </c>
-      <c r="M137" t="n">
-        <v>33592</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
-        <v>-2167266</v>
+        <v>-47653</v>
       </c>
     </row>
     <row r="138">
@@ -7409,16 +7409,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WUW</t>
+          <t>SUPERLUX</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>R24 type-C with mic white (WUW-R24)</t>
+          <t>HD662EVO Black</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>69</v>
+        <v>1099</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
@@ -7426,29 +7426,29 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>72.8%</t>
+          <t>-25.8%</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>0.99</v>
+        <v>37.47</v>
       </c>
       <c r="I138" t="n">
-        <v>40</v>
+        <v>1481</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="M138" t="n">
-        <v>113920</v>
+        <v>33592</v>
       </c>
       <c r="N138" t="n">
-        <v>6810524</v>
+        <v>-2167266</v>
       </c>
     </row>
     <row r="139">
@@ -7459,16 +7459,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>WUW</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Mi Piston Fresh Bloom Matte Silver (ZBW4355TY)</t>
+          <t>R24 type-C with mic white (WUW-R24)</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
@@ -7476,31 +7476,29 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>72.8%</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>4.59</v>
+        <v>0.99</v>
       </c>
       <c r="I139" t="n">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>ФОТ60</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>12</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>Р29346</t>
-        </is>
+        <v>199</v>
+      </c>
+      <c r="M139" t="n">
+        <v>113920</v>
       </c>
       <c r="N139" t="n">
-        <v>2078649</v>
+        <v>6810524</v>
       </c>
     </row>
     <row r="140">
@@ -7516,11 +7514,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Redmi Buds 3 Pro Graphite Black (BHR5244GL)</t>
+          <t>Mi Piston Fresh Bloom Matte Silver (ZBW4355TY)</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1429</v>
+        <v>229</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
@@ -7528,87 +7526,87 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>36.5</v>
+        <v>4.59</v>
       </c>
       <c r="I140" t="n">
-        <v>1351</v>
+        <v>174</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Магаз</t>
+          <t>ФОТ60</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>51</v>
-      </c>
-      <c r="M140" t="n">
-        <v>851916</v>
+        <v>12</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Р29346</t>
+        </is>
       </c>
       <c r="N140" t="n">
-        <v>7537064</v>
+        <v>2078649</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8 10.5 3/32GB LTE Dark Grey (SM-X205NZAA) Open Box</t>
+          <t>Redmi Buds 3 Pro Graphite Black (BHR5244GL)</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6999</v>
+        <v>1429</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>196</v>
+        <v>36.5</v>
       </c>
       <c r="I141" t="n">
-        <v>7252</v>
+        <v>1351</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>Магаз</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>31</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>STH0010456</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="M141" t="n">
+        <v>851916</v>
       </c>
       <c r="N141" t="n">
-        <v>8673211</v>
+        <v>7537064</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Планшетные ПК</t>
+          <t>Наушники</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7618,11 +7616,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Redmi Pad 3/64GB Mint Green</t>
+          <t>Redmi Buds 4 Lite White (BHR6919GL)</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6549</v>
+        <v>999</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
@@ -7630,14 +7628,14 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="I142" t="n">
-        <v>6401</v>
+        <v>650</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
@@ -7646,48 +7644,48 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>954472</v>
+        <v>975751</v>
       </c>
       <c r="N142" t="n">
-        <v>9166825</v>
+        <v>9759843</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Процессоры</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Pro A8-8670E (AD867BAHM44AB)</t>
+          <t>Galaxy Tab A8 10.5 3/32GB LTE Dark Grey (SM-X205NZAA) Open Box</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>879</v>
+        <v>6999</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-24.2%</t>
+          <t>-3.5%</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="I143" t="n">
-        <v>1160</v>
+        <v>7252</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
@@ -7696,33 +7694,35 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>185</v>
-      </c>
-      <c r="M143" t="n">
-        <v>383083</v>
+        <v>31</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>STH0010456</t>
+        </is>
       </c>
       <c r="N143" t="n">
-        <v>8143539</v>
+        <v>8673211</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Телефоны мобильные</t>
+          <t>Планшетные ПК</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BLACKVIEW</t>
+          <t>XIAOMI</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>A55 Pro 4/64GB Cloud White</t>
+          <t>Redmi Pad 3/64GB Mint Green</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3549</v>
+        <v>6549</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
@@ -7730,14 +7730,14 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>94.2</v>
+        <v>173</v>
       </c>
       <c r="I144" t="n">
-        <v>3486</v>
+        <v>6401</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
@@ -7748,33 +7748,31 @@
       <c r="L144" t="n">
         <v>23</v>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>STH0012050</t>
-        </is>
+      <c r="M144" t="n">
+        <v>954472</v>
       </c>
       <c r="N144" t="n">
-        <v>8785221</v>
+        <v>9166825</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Телефоны мобильные</t>
+          <t>Процессоры</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>S60 Black</t>
+          <t>Pro A8-8670E (AD867BAHM44AB)</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>11999</v>
+        <v>879</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
@@ -7782,29 +7780,29 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-29.9%</t>
+          <t>-24.2%</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>439</v>
+        <v>29</v>
       </c>
       <c r="I145" t="n">
-        <v>17121</v>
+        <v>1160</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M145" t="n">
-        <v>47732</v>
+        <v>383083</v>
       </c>
       <c r="N145" t="n">
-        <v>-1908276</v>
+        <v>8143539</v>
       </c>
     </row>
     <row r="146">
@@ -7815,16 +7813,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUBOT</t>
+          <t>BLACKVIEW</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>J10 1/32GB Green</t>
+          <t>A55 Pro 4/64GB Cloud White</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1949</v>
+        <v>3549</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
@@ -7832,14 +7830,14 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>48</v>
+        <v>94.2</v>
       </c>
       <c r="I146" t="n">
-        <v>1810</v>
+        <v>3486</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
@@ -7848,15 +7846,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>STH0010228</t>
+          <t>STH0012050</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>8477076</v>
+        <v>8785221</v>
       </c>
     </row>
     <row r="147">
@@ -7867,16 +7865,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUBOT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Note 9 3/32GB Black</t>
+          <t>S60 Black</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3399</v>
+        <v>11999</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
@@ -7884,14 +7882,14 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>-10.8%</t>
+          <t>-29.9%</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>103</v>
+        <v>439</v>
       </c>
       <c r="I147" t="n">
-        <v>3811</v>
+        <v>17121</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
@@ -7900,13 +7898,13 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="M147" t="n">
-        <v>747835</v>
+        <v>47732</v>
       </c>
       <c r="N147" t="n">
-        <v>-7601530</v>
+        <v>-1908276</v>
       </c>
     </row>
     <row r="148">
@@ -7917,16 +7915,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GOOGLE</t>
+          <t>CUBOT</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Pixel 5 8/128Gb Sorta Sage Global Version</t>
+          <t>J10 1/32GB Green</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>10299</v>
+        <v>1949</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
@@ -7934,29 +7932,31 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="I148" t="n">
-        <v>10217</v>
+        <v>1810</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2</v>
-      </c>
-      <c r="M148" t="n">
-        <v>745831</v>
+        <v>22</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>STH0010228</t>
+        </is>
       </c>
       <c r="N148" t="n">
-        <v>-5866565</v>
+        <v>8477076</v>
       </c>
     </row>
     <row r="149">
@@ -7967,16 +7967,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INFINIX</t>
+          <t>CUBOT</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Hot 11 4/128GB Blue Global Version</t>
+          <t>Note 9 3/32GB Black</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
@@ -7984,14 +7984,14 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-14.9%</t>
+          <t>-10.8%</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>127.03</v>
+        <v>103</v>
       </c>
       <c r="I149" t="n">
-        <v>4701</v>
+        <v>3811</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
@@ -8000,13 +8000,13 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M149" t="n">
-        <v>409959</v>
+        <v>747835</v>
       </c>
       <c r="N149" t="n">
-        <v>-8782537</v>
+        <v>-7601530</v>
       </c>
     </row>
     <row r="150">
@@ -8017,16 +8017,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LAND ROVER</t>
+          <t>GOOGLE</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>T3 Black</t>
+          <t>Pixel 5 8/128Gb Sorta Sage Global Version</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1149</v>
+        <v>10299</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
@@ -8034,14 +8034,14 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-8.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="I150" t="n">
-        <v>1258</v>
+        <v>10217</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
@@ -8050,15 +8050,13 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>10</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>6009b371fc0d3022243dde9c</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>745831</v>
       </c>
       <c r="N150" t="n">
-        <v>-6002172</v>
+        <v>-5866565</v>
       </c>
     </row>
     <row r="151">
@@ -8069,16 +8067,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MAXCOM</t>
+          <t>INFINIX</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Classic MM142 Gray</t>
+          <t>Hot 11 4/128GB Blue Global Version</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>689</v>
+        <v>3999</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
@@ -8086,31 +8084,29 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>15.8%</t>
+          <t>-14.9%</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>15.78</v>
+        <v>127.03</v>
       </c>
       <c r="I151" t="n">
-        <v>595</v>
+        <v>4701</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>21</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>00-00039645</t>
-        </is>
+        <v>75</v>
+      </c>
+      <c r="M151" t="n">
+        <v>409959</v>
       </c>
       <c r="N151" t="n">
-        <v>3243072</v>
+        <v>-8782537</v>
       </c>
     </row>
     <row r="152">
@@ -8121,16 +8117,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NOKIA</t>
+          <t>LAND ROVER</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>105 Dual Sim 2019 Pink</t>
+          <t>T3 Black</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>849</v>
+        <v>1149</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
@@ -8138,29 +8134,31 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12.4%</t>
+          <t>-8.7%</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>20.41</v>
+        <v>34</v>
       </c>
       <c r="I152" t="n">
-        <v>756</v>
+        <v>1258</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>34</v>
-      </c>
-      <c r="M152" t="n">
-        <v>118861</v>
+        <v>10</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>6009b371fc0d3022243dde9c</t>
+        </is>
       </c>
       <c r="N152" t="n">
-        <v>3551676</v>
+        <v>-6002172</v>
       </c>
     </row>
     <row r="153">
@@ -8171,16 +8169,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NOKIA</t>
+          <t>MAXCOM</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>105 Dual Sim 2023 Red</t>
+          <t>Classic MM142 Gray</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>929</v>
+        <v>689</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
@@ -8188,14 +8186,14 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>17.6%</t>
+          <t>15.8%</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>21.34</v>
+        <v>15.78</v>
       </c>
       <c r="I153" t="n">
-        <v>790</v>
+        <v>595</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
@@ -8204,13 +8202,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>34</v>
-      </c>
-      <c r="M153" t="n">
-        <v>464897</v>
+        <v>21</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>00-00039645</t>
+        </is>
       </c>
       <c r="N153" t="n">
-        <v>10295775</v>
+        <v>3243072</v>
       </c>
     </row>
     <row r="154">
@@ -8226,11 +8226,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2660 Flip Black</t>
+          <t>105 Dual Sim 2019 Pink</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2399</v>
+        <v>849</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
@@ -8238,14 +8238,14 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>12.4%</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>60.85</v>
+        <v>20.41</v>
       </c>
       <c r="I154" t="n">
-        <v>2264</v>
+        <v>756</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
@@ -8254,15 +8254,13 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>86</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>ТЛГ056822</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="M154" t="n">
+        <v>118861</v>
       </c>
       <c r="N154" t="n">
-        <v>9069980</v>
+        <v>3551676</v>
       </c>
     </row>
     <row r="155">
@@ -8273,16 +8271,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>REALME</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>C30s 3/64GB Stripe Blue</t>
+          <t>105 Dual Sim 2023 Red</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3499</v>
+        <v>929</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
@@ -8290,14 +8288,14 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>91.86</v>
+        <v>21.34</v>
       </c>
       <c r="I155" t="n">
-        <v>3399</v>
+        <v>790</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
@@ -8306,13 +8304,13 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="M155" t="n">
-        <v>6872881</v>
+        <v>464897</v>
       </c>
       <c r="N155" t="n">
-        <v>10151298</v>
+        <v>10295775</v>
       </c>
     </row>
     <row r="156">
@@ -8323,16 +8321,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>NOKIA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G 8/256GB Light Blue (SM-A536ELBHSEK)</t>
+          <t>2660 Flip Black</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>14899</v>
+        <v>2399</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
@@ -8340,31 +8338,31 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>398</v>
+        <v>60.85</v>
       </c>
       <c r="I156" t="n">
-        <v>15005</v>
+        <v>2264</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>U0637914</t>
+          <t>ТЛГ056822</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>-8732080</v>
+        <v>9069980</v>
       </c>
     </row>
     <row r="157">
@@ -8375,16 +8373,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>REALME</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G 6/128GB White (SM-A736BZWDSEK)</t>
+          <t>C30s 3/64GB Stripe Blue</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>14999</v>
+        <v>3499</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
@@ -8392,14 +8390,14 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>386.9</v>
+        <v>91.86</v>
       </c>
       <c r="I157" t="n">
-        <v>14587</v>
+        <v>3399</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
@@ -8408,13 +8406,13 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M157" t="n">
-        <v>79230</v>
+        <v>6872881</v>
       </c>
       <c r="N157" t="n">
-        <v>8690907</v>
+        <v>10151298</v>
       </c>
     </row>
     <row r="158">
@@ -8430,11 +8428,11 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Note 10 N970U Single Sim US Snapdragon 10/256GB Black</t>
+          <t>Galaxy A53 5G 8/256GB Light Blue (SM-A536ELBHSEK)</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>10699</v>
+        <v>14899</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
@@ -8442,29 +8440,31 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="I158" t="n">
-        <v>10619</v>
+        <v>15005</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>23</v>
-      </c>
-      <c r="M158" t="n">
-        <v>743646</v>
+        <v>13</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>U0637914</t>
+        </is>
       </c>
       <c r="N158" t="n">
-        <v>4143358</v>
+        <v>-8732080</v>
       </c>
     </row>
     <row r="159">
@@ -8480,11 +8480,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy S10 128GB Green 1 Sim (G973U) USA Open Box</t>
+          <t>Galaxy Note 10 N970U Single Sim US Snapdragon 10/256GB Black</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>9599</v>
+        <v>10699</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
@@ -8492,31 +8492,29 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="I159" t="n">
-        <v>12091</v>
+        <v>10619</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>91</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>STH0011954</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="M159" t="n">
+        <v>743646</v>
       </c>
       <c r="N159" t="n">
-        <v>-8771626</v>
+        <v>4143358</v>
       </c>
     </row>
     <row r="160">
@@ -8527,16 +8525,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SIGMA MOBILE</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>X-Style 31 Power Type-C Black</t>
+          <t>Galaxy S10 128GB Green 1 Sim (G973U) USA Open Box</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>999</v>
+        <v>9599</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
@@ -8544,31 +8542,31 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20.3%</t>
+          <t>-20.6%</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>22.02</v>
+        <v>325</v>
       </c>
       <c r="I160" t="n">
-        <v>831</v>
+        <v>12091</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>ТЛГ057350</t>
+          <t>STH0011954</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>9622881</v>
+        <v>-8771626</v>
       </c>
     </row>
     <row r="161">
@@ -8584,7 +8582,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>X-Style 31 Power Type-C Grey</t>
+          <t>X-Style 31 Power Type-C Black</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -8596,14 +8594,14 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>20.3%</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>22.12</v>
+        <v>22.02</v>
       </c>
       <c r="I161" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
@@ -8612,15 +8610,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>U0760879</t>
+          <t>ТЛГ057350</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>9529055</v>
+        <v>9622881</v>
       </c>
     </row>
     <row r="162">
@@ -8636,7 +8634,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>X-Style 31 Power Type-C Purple</t>
+          <t>X-Style 31 Power Type-C Grey</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -8648,14 +8646,14 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>18.1%</t>
+          <t>19.8%</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>22.43</v>
+        <v>22.12</v>
       </c>
       <c r="I162" t="n">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
@@ -8664,13 +8662,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>9</v>
-      </c>
-      <c r="M162" t="n">
-        <v>448250</v>
+        <v>21</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>U0760879</t>
+        </is>
       </c>
       <c r="N162" t="n">
-        <v>9532108</v>
+        <v>9529055</v>
       </c>
     </row>
     <row r="163">
@@ -8681,16 +8681,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TECNO</t>
+          <t>SIGMA MOBILE</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Spark 8C KG5j 2/64GB Diamond Grey (4895180777677)</t>
+          <t>X-Style 31 Power Type-C Purple</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2999</v>
+        <v>999</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
@@ -8698,29 +8698,29 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-12.9%</t>
+          <t>18.1%</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>93</v>
+        <v>22.43</v>
       </c>
       <c r="I163" t="n">
-        <v>3441</v>
+        <v>846</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>ФотУц</t>
+          <t>Фот</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="M163" t="n">
-        <v>4895180777677</v>
+        <v>448250</v>
       </c>
       <c r="N163" t="n">
-        <v>-9150395</v>
+        <v>9532108</v>
       </c>
     </row>
     <row r="164">
@@ -8731,16 +8731,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>UMIDIGI</t>
+          <t>TECNO</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>A11 3/64Gb Grey</t>
+          <t>Spark 8C KG5j 2/64GB Diamond Grey (4895180777677)</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3299</v>
+        <v>2999</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
@@ -8748,29 +8748,29 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-12.9%</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I164" t="n">
-        <v>3167</v>
+        <v>3441</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Фот</t>
+          <t>ФотУц</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="M164" t="n">
-        <v>747654</v>
+        <v>4895180777677</v>
       </c>
       <c r="N164" t="n">
-        <v>7148373</v>
+        <v>-9150395</v>
       </c>
     </row>
     <row r="165">
@@ -8781,16 +8781,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>UMIDIGI</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Redmi Note 10 5G 4/64GB Blue NFC Global Version</t>
+          <t>A11 3/64Gb Grey</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>5449</v>
+        <v>3299</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
@@ -8798,14 +8798,14 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="I165" t="n">
-        <v>5254</v>
+        <v>3167</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
@@ -8814,12 +8814,62 @@
         </is>
       </c>
       <c r="L165" t="n">
+        <v>3</v>
+      </c>
+      <c r="M165" t="n">
+        <v>747654</v>
+      </c>
+      <c r="N165" t="n">
+        <v>7148373</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Телефоны мобильные</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Redmi Note 10 5G 4/64GB Blue NFC Global Version</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>5449</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>142</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5254</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Фот</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
         <v>34</v>
       </c>
-      <c r="M165" t="n">
+      <c r="M166" t="n">
         <v>747544</v>
       </c>
-      <c r="N165" t="n">
+      <c r="N166" t="n">
         <v>6889368</v>
       </c>
     </row>
